--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/Section2.4_Example.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/Section2.4_Example.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranu.COMPRO\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37D084D5-4CCF-43B2-A211-3245E5A9F85E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A774161-419E-4AB6-B2A2-49FB70D431CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
@@ -255,7 +254,9 @@
           <a:r>
             <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
@@ -320,6 +321,11 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-IN" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -328,7 +334,9 @@
           </a:r>
           <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:latin typeface="Calibri"/>
             <a:cs typeface="Calibri"/>
@@ -462,6 +470,11 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -470,7 +483,9 @@
           </a:r>
           <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:latin typeface="Calibri"/>
             <a:cs typeface="Calibri"/>
@@ -533,6 +548,11 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-IN" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -541,7 +561,9 @@
           </a:r>
           <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:latin typeface="Calibri"/>
             <a:cs typeface="Calibri"/>
@@ -604,6 +626,11 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-IN" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -612,7 +639,9 @@
           </a:r>
           <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:latin typeface="Calibri"/>
             <a:cs typeface="Calibri"/>
@@ -672,6 +701,11 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-IN" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -679,6 +713,11 @@
             <a:t>6. Update the account’s running balance</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
@@ -687,6 +726,11 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -697,6 +741,11 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -705,6 +754,11 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-IN" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -712,6 +766,11 @@
             <a:t>no previous balance and the entry is a Credit, enter the same amount in the Credit balance column</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
@@ -1628,11 +1687,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6BD0CB-968E-4E91-AE23-314DD15D7249}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:G23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
